--- a/datos/datos_recalificar_todo.xlsx
+++ b/datos/datos_recalificar_todo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">CURSOS_ID</t>
   </si>
@@ -28,7 +28,10 @@
     <t xml:space="preserve">ACTIVIDAD</t>
   </si>
   <si>
-    <t xml:space="preserve">CPL: I1.v2</t>
+    <t xml:space="preserve">CPS1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPS1.2</t>
   </si>
 </sst>
 </file>
@@ -38,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -65,6 +68,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -119,12 +128,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -132,7 +145,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,7 +169,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -164,7 +177,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -174,14 +187,24 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>9978</v>
+        <v>13317</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>13317</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/datos/datos_recalificar_todo.xlsx
+++ b/datos/datos_recalificar_todo.xlsx
@@ -28,10 +28,10 @@
     <t xml:space="preserve">ACTIVIDAD</t>
   </si>
   <si>
-    <t xml:space="preserve">CPS1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPS1.2</t>
+    <t xml:space="preserve">CPS1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPS1.4</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:C3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -198,7 +198,7 @@
       <c r="A3" s="1" t="n">
         <v>13317</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3"/>

--- a/datos/datos_recalificar_todo.xlsx
+++ b/datos/datos_recalificar_todo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
   <si>
     <t xml:space="preserve">CURSOS_ID</t>
   </si>
@@ -28,10 +28,13 @@
     <t xml:space="preserve">ACTIVIDAD</t>
   </si>
   <si>
-    <t xml:space="preserve">CPS1.3</t>
+    <t xml:space="preserve">CPS2.3</t>
   </si>
   <si>
-    <t xml:space="preserve">CPS1.4</t>
+    <t xml:space="preserve">CPS2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPS2.1</t>
   </si>
 </sst>
 </file>
@@ -41,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -68,12 +71,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -137,15 +134,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,10 +163,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -186,26 +183,340 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>13317</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2" t="n">
+        <v>12123</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>13317</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="n">
+        <v>12124</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="3"/>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>12095</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>12094</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>12093</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>12092</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>12091</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>12090</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>12089</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>12088</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>12087</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>12086</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>12123</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>12124</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>12095</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>12094</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>12093</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>12092</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>12091</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>12090</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>12089</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>12088</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>12087</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>12086</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>12096</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>12097</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>12098</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>12099</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>12100</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>12101</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>12102</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>12103</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>12104</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>12105</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>12106</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>12107</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>12108</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>12109</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>12110</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>12111</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>12112</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
